--- a/VT_REG1_IND_V12.xlsx
+++ b/VT_REG1_IND_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA_Release\Demo_S012_Vonline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D48082-0C1C-4A19-BC88-850619F71EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5AF54B-9E93-4842-AB10-85DB75F9C285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="901" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -28,24 +28,16 @@
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD8" authorId="0" shapeId="0">
+    <comment ref="AD8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,14 +68,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0">
+    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0">
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -500,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -563,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="2" shapeId="0">
+    <comment ref="J14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -811,14 +803,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -932,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -958,7 +950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1031,7 +1023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1084,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1117,7 +1109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0">
+    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1546,7 +1538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="173">
   <si>
     <t>CommName</t>
   </si>
@@ -2053,18 +2045,30 @@
   </si>
   <si>
     <t>Lifetime</t>
+  </si>
+  <si>
+    <t>DEETEST</t>
+  </si>
+  <si>
+    <t>INDELC</t>
+  </si>
+  <si>
+    <t>DEEPAK TEST</t>
+  </si>
+  <si>
+    <t>PJa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2094,32 +2098,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2573,186 +2551,174 @@
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="23" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="21" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="17" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="21" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="9" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="21" fillId="7" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="21" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="21" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="9" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
@@ -2763,15 +2729,15 @@
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2780,26 +2746,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -2809,95 +2775,85 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="9" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1"/>
-    <xf numFmtId="9" fontId="18" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="6"/>
-    <xf numFmtId="9" fontId="22" fillId="8" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="6"/>
+    <xf numFmtId="9" fontId="18" fillId="8" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="13" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="13" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="26" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="26" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 4 2" xfId="12"/>
-    <cellStyle name="Normal 8" xfId="13"/>
-    <cellStyle name="Normal 9 2" xfId="14"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="17"/>
-    <cellStyle name="Percent 3" xfId="18"/>
-    <cellStyle name="Percent 3 2" xfId="19"/>
-    <cellStyle name="Percent 3 3" xfId="20"/>
-    <cellStyle name="Percent 4" xfId="21"/>
-    <cellStyle name="Percent 4 2" xfId="22"/>
-    <cellStyle name="Percent 4 3" xfId="23"/>
-    <cellStyle name="Percent 5" xfId="24"/>
-    <cellStyle name="Percent 6" xfId="25"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="26"/>
+    <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 4 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 6" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3698,7 +3654,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3833,7 +3789,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="EnergyBalance"/>
@@ -4623,11 +4579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="B1:AS25"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
@@ -4650,8 +4606,8 @@
     <col min="31" max="45" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="X1" s="26" t="s">
+    <row r="1" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="X1" s="21" t="s">
         <v>94</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -4664,1664 +4620,1618 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="6"/>
-      <c r="D2" s="50" t="s">
+    <row r="2" spans="2:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="S2" s="50" t="s">
+      <c r="S2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="50" t="s">
+      <c r="U2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="50" t="s">
+      <c r="V2" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="49" t="s">
+      <c r="Y2" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="50" t="s">
+      <c r="AE2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AF2" s="50" t="s">
+      <c r="AF2" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" s="50" t="s">
+      <c r="AG2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AH2" s="50" t="s">
+      <c r="AH2" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="AI2" s="50" t="s">
+      <c r="AI2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="AJ2" s="50" t="s">
+      <c r="AJ2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="AK2" s="50" t="s">
+      <c r="AK2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AL2" s="50" t="s">
+      <c r="AL2" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AM2" s="50" t="s">
+      <c r="AM2" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="AN2" s="50" t="s">
+      <c r="AN2" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="AO2" s="50" t="s">
+      <c r="AO2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AP2" s="50" t="s">
+      <c r="AP2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="50" t="s">
+      <c r="AQ2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="50" t="s">
+      <c r="AR2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AS2" s="50" t="s">
+      <c r="AS2" s="39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C3" s="85" t="s">
+    <row r="3" spans="2:45" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C3" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="51" t="s">
+      <c r="O3" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="84" t="s">
+      <c r="AC3" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="51" t="s">
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="AF3" s="51" t="s">
+      <c r="AF3" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AG3" s="51" t="s">
+      <c r="AG3" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="AH3" s="51" t="s">
+      <c r="AH3" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="AI3" s="51" t="s">
+      <c r="AI3" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AJ3" s="51" t="s">
+      <c r="AJ3" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="AK3" s="51" t="s">
+      <c r="AK3" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="AL3" s="51" t="s">
+      <c r="AL3" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="AM3" s="51" t="s">
+      <c r="AM3" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AN3" s="51" t="s">
+      <c r="AN3" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AO3" s="51" t="s">
+      <c r="AO3" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="AP3" s="51" t="s">
+      <c r="AP3" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AQ3" s="51" t="s">
+      <c r="AQ3" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AR3" s="51" t="s">
+      <c r="AR3" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="AS3" s="51" t="s">
+      <c r="AS3" s="40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B4" s="48"/>
-      <c r="C4" s="103" t="s">
+    <row r="4" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B4" s="37"/>
+      <c r="C4" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="104"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="9" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="92"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="52" t="s">
+      <c r="AO4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="105">
+      <c r="D5" s="93">
         <f>[2]EB1!D16</f>
         <v>231.76075</v>
       </c>
-      <c r="E5" s="105">
+      <c r="E5" s="93">
         <f>[2]EB1!E16</f>
         <v>2063.9171999999999</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="93">
         <f>[2]EB1!F16</f>
         <v>0</v>
       </c>
-      <c r="G5" s="105">
+      <c r="G5" s="93">
         <f>[2]EB1!G16</f>
         <v>862.053</v>
       </c>
-      <c r="H5" s="105">
+      <c r="H5" s="93">
         <f>[2]EB1!H16</f>
         <v>72.9495</v>
       </c>
-      <c r="I5" s="105">
+      <c r="I5" s="93">
         <f>[2]EB1!I16</f>
         <v>190.17599999999999</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="93">
         <f>[2]EB1!J16</f>
         <v>3.1680000000000001</v>
       </c>
-      <c r="K5" s="105">
+      <c r="K5" s="93">
         <f>[2]EB1!K16</f>
         <v>0</v>
       </c>
-      <c r="L5" s="105">
+      <c r="L5" s="93">
         <f>[2]EB1!L16</f>
         <v>15.38</v>
       </c>
-      <c r="M5" s="105">
+      <c r="M5" s="93">
         <f>[2]EB1!M16</f>
         <v>0.92</v>
       </c>
-      <c r="N5" s="106">
+      <c r="N5" s="94">
         <f>[2]EB1!N16</f>
         <v>0</v>
       </c>
-      <c r="O5" s="105">
+      <c r="O5" s="93">
         <f>[2]EB1!O16</f>
         <v>895.44524999999999</v>
       </c>
-      <c r="P5" s="105">
+      <c r="P5" s="93">
         <f>[2]EB1!P16</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="105">
+      <c r="Q5" s="93">
         <f>[2]EB1!Q16</f>
         <v>0</v>
       </c>
-      <c r="R5" s="105">
+      <c r="R5" s="93">
         <f>[2]EB1!R16</f>
         <v>50</v>
       </c>
-      <c r="S5" s="105">
+      <c r="S5" s="93">
         <f>[2]EB1!S16</f>
         <v>0</v>
       </c>
-      <c r="T5" s="105">
+      <c r="T5" s="93">
         <f>[2]EB1!T16</f>
         <v>432.74250000000001</v>
       </c>
-      <c r="U5" s="105">
+      <c r="U5" s="93">
         <f>[2]EB1!U16</f>
         <v>1435.8710000000001</v>
       </c>
-      <c r="V5" s="107">
+      <c r="V5" s="95">
         <f>SUM(D5:U5)</f>
         <v>6254.3832000000002</v>
       </c>
-      <c r="AC5" s="52" t="s">
+      <c r="AC5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="AD5" s="62" t="s">
+      <c r="AD5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="AE5" s="76">
+      <c r="AE5" s="65">
         <v>1</v>
       </c>
-      <c r="AF5" s="77">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="77">
+      <c r="AF5" s="66">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="66">
         <v>0.3</v>
       </c>
-      <c r="AH5" s="77">
+      <c r="AH5" s="66">
         <v>0.3</v>
       </c>
-      <c r="AI5" s="77">
+      <c r="AI5" s="66">
         <v>0.3</v>
       </c>
-      <c r="AJ5" s="77">
+      <c r="AJ5" s="66">
         <v>0.3</v>
       </c>
-      <c r="AK5" s="77">
+      <c r="AK5" s="66">
         <v>0.3</v>
       </c>
-      <c r="AL5" s="77">
+      <c r="AL5" s="66">
         <v>0.3</v>
       </c>
-      <c r="AM5" s="77">
+      <c r="AM5" s="66">
         <v>0.3</v>
       </c>
-      <c r="AN5" s="77">
+      <c r="AN5" s="66">
         <v>0.3</v>
       </c>
-      <c r="AO5" s="77">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="77">
+      <c r="AO5" s="66">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="66">
         <v>1</v>
       </c>
-      <c r="AQ5" s="77">
+      <c r="AQ5" s="66">
         <v>0.5</v>
       </c>
-      <c r="AR5" s="77">
+      <c r="AR5" s="66">
         <v>0.5</v>
       </c>
-      <c r="AS5" s="78">
+      <c r="AS5" s="67">
         <v>0.44</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="52" t="s">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B6" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="93">
         <f>[2]EB1!D17</f>
         <v>37.001249999999999</v>
       </c>
-      <c r="E6" s="105">
+      <c r="E6" s="93">
         <f>[2]EB1!E17</f>
         <v>700.69200000000001</v>
       </c>
-      <c r="F6" s="105">
+      <c r="F6" s="93">
         <f>[2]EB1!F17</f>
         <v>0</v>
       </c>
-      <c r="G6" s="105">
+      <c r="G6" s="93">
         <f>[2]EB1!G17</f>
         <v>368.84399999999999</v>
       </c>
-      <c r="H6" s="105">
+      <c r="H6" s="93">
         <f>[2]EB1!H17</f>
         <v>1.677</v>
       </c>
-      <c r="I6" s="105">
+      <c r="I6" s="93">
         <f>[2]EB1!I17</f>
         <v>31.602</v>
       </c>
-      <c r="J6" s="105">
+      <c r="J6" s="93">
         <f>[2]EB1!J17</f>
         <v>5.72</v>
       </c>
-      <c r="K6" s="105">
+      <c r="K6" s="93">
         <f>[2]EB1!K17</f>
         <v>0</v>
       </c>
-      <c r="L6" s="105">
+      <c r="L6" s="93">
         <f>[2]EB1!L17</f>
         <v>19.32</v>
       </c>
-      <c r="M6" s="105">
+      <c r="M6" s="93">
         <f>[2]EB1!M17</f>
         <v>0.24199999999999999</v>
       </c>
-      <c r="N6" s="106">
+      <c r="N6" s="94">
         <f>[2]EB1!N17</f>
         <v>0</v>
       </c>
-      <c r="O6" s="105">
+      <c r="O6" s="93">
         <f>[2]EB1!O17</f>
         <v>39</v>
       </c>
-      <c r="P6" s="105">
+      <c r="P6" s="93">
         <f>[2]EB1!P17</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="105">
+      <c r="Q6" s="93">
         <f>[2]EB1!Q17</f>
         <v>0</v>
       </c>
-      <c r="R6" s="105">
+      <c r="R6" s="93">
         <f>[2]EB1!R17</f>
         <v>7.5</v>
       </c>
-      <c r="S6" s="105">
+      <c r="S6" s="93">
         <f>[2]EB1!S17</f>
         <v>0.60850000000000004</v>
       </c>
-      <c r="T6" s="105">
+      <c r="T6" s="93">
         <f>[2]EB1!T17</f>
         <v>127.32299999999999</v>
       </c>
-      <c r="U6" s="105">
+      <c r="U6" s="93">
         <f>[2]EB1!U17</f>
         <v>1263.6955</v>
       </c>
-      <c r="V6" s="107">
+      <c r="V6" s="95">
         <f t="shared" ref="V6:V12" si="0">SUM(D6:U6)</f>
         <v>2603.2252500000004</v>
       </c>
-      <c r="AC6" s="52" t="s">
+      <c r="AC6" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="AD6" s="63" t="s">
+      <c r="AD6" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="AE6" s="79">
+      <c r="AE6" s="68">
         <v>1</v>
       </c>
-      <c r="AF6" s="80">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="80">
+      <c r="AF6" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="69">
         <v>0.3</v>
       </c>
-      <c r="AH6" s="80">
+      <c r="AH6" s="69">
         <v>0.3</v>
       </c>
-      <c r="AI6" s="80">
+      <c r="AI6" s="69">
         <v>0.3</v>
       </c>
-      <c r="AJ6" s="80">
+      <c r="AJ6" s="69">
         <v>0.3</v>
       </c>
-      <c r="AK6" s="80">
+      <c r="AK6" s="69">
         <v>0.3</v>
       </c>
-      <c r="AL6" s="80">
+      <c r="AL6" s="69">
         <v>0.3</v>
       </c>
-      <c r="AM6" s="80">
+      <c r="AM6" s="69">
         <v>0.3</v>
       </c>
-      <c r="AN6" s="80">
+      <c r="AN6" s="69">
         <v>0.3</v>
       </c>
-      <c r="AO6" s="80">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="80">
+      <c r="AO6" s="69">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="69">
         <v>1</v>
       </c>
-      <c r="AQ6" s="80">
+      <c r="AQ6" s="69">
         <v>0.5</v>
       </c>
-      <c r="AR6" s="80">
+      <c r="AR6" s="69">
         <v>0.5</v>
       </c>
-      <c r="AS6" s="81">
+      <c r="AS6" s="70">
         <v>0.44</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="52" t="s">
+    <row r="7" spans="2:45" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="44">
         <f>[2]EB1!D18</f>
         <v>1233.0409000000002</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="44">
         <f>[2]EB1!E18</f>
         <v>1774.8644000000002</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="44">
         <f>[2]EB1!F18</f>
         <v>0</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="44">
         <f>[2]EB1!G18</f>
         <v>298.68</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="44">
         <f>[2]EB1!H18</f>
         <v>36.356499999999997</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="44">
         <f>[2]EB1!I18</f>
         <v>142.97149999999999</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="44">
         <f>[2]EB1!J18</f>
         <v>7.766</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="44">
         <f>[2]EB1!K18</f>
         <v>44.066000000000003</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="44">
         <f>[2]EB1!L18</f>
         <v>286.0505</v>
       </c>
-      <c r="M7" s="55">
+      <c r="M7" s="44">
         <f>[2]EB1!M18</f>
         <v>191.57300000000001</v>
       </c>
-      <c r="N7" s="55">
+      <c r="N7" s="44">
         <f>[2]EB1!N18</f>
         <v>0</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7" s="44">
         <f>[2]EB1!O18</f>
         <v>541.25324999999998</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="44">
         <f>[2]EB1!P18</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="55">
+      <c r="Q7" s="44">
         <f>[2]EB1!Q18</f>
         <v>0</v>
       </c>
-      <c r="R7" s="55">
+      <c r="R7" s="44">
         <f>[2]EB1!R18</f>
         <v>0</v>
       </c>
-      <c r="S7" s="105">
+      <c r="S7" s="93">
         <f>[2]EB1!S18</f>
         <v>58.595999999999997</v>
       </c>
-      <c r="T7" s="105">
+      <c r="T7" s="93">
         <f>[2]EB1!T18</f>
         <v>316.79149999999998</v>
       </c>
-      <c r="U7" s="55">
+      <c r="U7" s="44">
         <f>[2]EB1!U18</f>
         <v>2044.222</v>
       </c>
-      <c r="V7" s="107">
+      <c r="V7" s="95">
         <f t="shared" si="0"/>
         <v>6976.2315499999995</v>
       </c>
-      <c r="X7" s="10"/>
-      <c r="AC7" s="52" t="s">
+      <c r="X7" s="7"/>
+      <c r="AC7" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="AD7" s="63" t="s">
+      <c r="AD7" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AE7" s="83">
+      <c r="AE7" s="72">
         <v>1</v>
       </c>
-      <c r="AF7" s="70">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="70">
+      <c r="AF7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="59">
         <v>0.3</v>
       </c>
-      <c r="AH7" s="70">
+      <c r="AH7" s="59">
         <v>0.3</v>
       </c>
-      <c r="AI7" s="70">
+      <c r="AI7" s="59">
         <v>0.3</v>
       </c>
-      <c r="AJ7" s="70">
+      <c r="AJ7" s="59">
         <v>0.3</v>
       </c>
-      <c r="AK7" s="70">
+      <c r="AK7" s="59">
         <v>0.3</v>
       </c>
-      <c r="AL7" s="70">
+      <c r="AL7" s="59">
         <v>0.3</v>
       </c>
-      <c r="AM7" s="70">
+      <c r="AM7" s="59">
         <v>0.3</v>
       </c>
-      <c r="AN7" s="70">
+      <c r="AN7" s="59">
         <v>0.3</v>
       </c>
-      <c r="AO7" s="80">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="70">
+      <c r="AO7" s="69">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="59">
         <v>1</v>
       </c>
-      <c r="AQ7" s="80">
+      <c r="AQ7" s="69">
         <v>0.5</v>
       </c>
-      <c r="AR7" s="80">
+      <c r="AR7" s="69">
         <v>0.5</v>
       </c>
-      <c r="AS7" s="118">
+      <c r="AS7" s="106">
         <v>0.44</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="52" t="s">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B8" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="105">
+      <c r="D8" s="93">
         <f>[2]EB1!D19</f>
         <v>28.665000000000003</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="93">
         <f>[2]EB1!E19</f>
         <v>80.482399999999998</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="93">
         <f>[2]EB1!F19</f>
         <v>0</v>
       </c>
-      <c r="G8" s="105">
+      <c r="G8" s="93">
         <f>[2]EB1!G19</f>
         <v>366.58800000000002</v>
       </c>
-      <c r="H8" s="105">
+      <c r="H8" s="93">
         <f>[2]EB1!H19</f>
         <v>0.47299999999999998</v>
       </c>
-      <c r="I8" s="105">
+      <c r="I8" s="93">
         <f>[2]EB1!I19</f>
         <v>16.169</v>
       </c>
-      <c r="J8" s="105">
+      <c r="J8" s="93">
         <f>[2]EB1!J19</f>
         <v>1.716</v>
       </c>
-      <c r="K8" s="105">
+      <c r="K8" s="93">
         <f>[2]EB1!K19</f>
         <v>0</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="93">
         <f>[2]EB1!L19</f>
         <v>13.74</v>
       </c>
-      <c r="M8" s="105">
+      <c r="M8" s="93">
         <f>[2]EB1!M19</f>
         <v>0</v>
       </c>
-      <c r="N8" s="106">
+      <c r="N8" s="94">
         <f>[2]EB1!N19</f>
         <v>0</v>
       </c>
-      <c r="O8" s="105">
+      <c r="O8" s="93">
         <f>[2]EB1!O19</f>
         <v>47.314499999999995</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="93">
         <f>[2]EB1!P19</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="105">
+      <c r="Q8" s="93">
         <f>[2]EB1!Q19</f>
         <v>0</v>
       </c>
-      <c r="R8" s="105">
+      <c r="R8" s="93">
         <f>[2]EB1!R19</f>
         <v>0</v>
       </c>
-      <c r="S8" s="105">
+      <c r="S8" s="93">
         <f>[2]EB1!S19</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="T8" s="105">
+      <c r="T8" s="93">
         <f>[2]EB1!T19</f>
         <v>7.7869999999999999</v>
       </c>
-      <c r="U8" s="105">
+      <c r="U8" s="93">
         <f>[2]EB1!U19</f>
         <v>9.6930000000000014</v>
       </c>
-      <c r="V8" s="107">
+      <c r="V8" s="95">
         <f t="shared" si="0"/>
         <v>572.62840000000006</v>
       </c>
-      <c r="AC8" s="52" t="s">
+      <c r="AC8" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="AD8" s="63" t="s">
+      <c r="AD8" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="AE8" s="79">
+      <c r="AE8" s="68">
         <v>1</v>
       </c>
-      <c r="AF8" s="80">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="80">
+      <c r="AF8" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="69">
         <v>0.3</v>
       </c>
-      <c r="AH8" s="80">
+      <c r="AH8" s="69">
         <v>0.3</v>
       </c>
-      <c r="AI8" s="80">
+      <c r="AI8" s="69">
         <v>0.3</v>
       </c>
-      <c r="AJ8" s="80">
+      <c r="AJ8" s="69">
         <v>0.3</v>
       </c>
-      <c r="AK8" s="80">
+      <c r="AK8" s="69">
         <v>0.3</v>
       </c>
-      <c r="AL8" s="80">
+      <c r="AL8" s="69">
         <v>0.3</v>
       </c>
-      <c r="AM8" s="80">
+      <c r="AM8" s="69">
         <v>0.3</v>
       </c>
-      <c r="AN8" s="80">
+      <c r="AN8" s="69">
         <v>0.3</v>
       </c>
-      <c r="AO8" s="80">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="80">
+      <c r="AO8" s="69">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="69">
         <v>1</v>
       </c>
-      <c r="AQ8" s="80">
+      <c r="AQ8" s="69">
         <v>0.5</v>
       </c>
-      <c r="AR8" s="80">
+      <c r="AR8" s="69">
         <v>0.5</v>
       </c>
-      <c r="AS8" s="81">
+      <c r="AS8" s="70">
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="52" t="s">
+    <row r="9" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B9" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="105">
+      <c r="D9" s="93">
         <f>[2]EB1!D20</f>
         <v>0.36140000000000005</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="93">
         <f>[2]EB1!E20</f>
         <v>8.4995999999999992</v>
       </c>
-      <c r="F9" s="105">
+      <c r="F9" s="93">
         <f>[2]EB1!F20</f>
         <v>0</v>
       </c>
-      <c r="G9" s="105">
+      <c r="G9" s="93">
         <f>[2]EB1!G20</f>
         <v>3856.2855</v>
       </c>
-      <c r="H9" s="105">
+      <c r="H9" s="93">
         <f>[2]EB1!H20</f>
         <v>1047.652</v>
       </c>
-      <c r="I9" s="105">
+      <c r="I9" s="93">
         <f>[2]EB1!I20</f>
         <v>94.230999999999995</v>
       </c>
-      <c r="J9" s="105">
+      <c r="J9" s="93">
         <f>[2]EB1!J20</f>
         <v>2394.2159999999999</v>
       </c>
-      <c r="K9" s="105">
+      <c r="K9" s="93">
         <f>[2]EB1!K20</f>
         <v>0</v>
       </c>
-      <c r="L9" s="105">
+      <c r="L9" s="93">
         <f>[2]EB1!L20</f>
         <v>33.24</v>
       </c>
-      <c r="M9" s="105">
+      <c r="M9" s="93">
         <f>[2]EB1!M20</f>
         <v>0</v>
       </c>
-      <c r="N9" s="106">
+      <c r="N9" s="94">
         <f>[2]EB1!N20</f>
         <v>0</v>
       </c>
-      <c r="O9" s="105">
+      <c r="O9" s="93">
         <f>[2]EB1!O20</f>
         <v>120.75</v>
       </c>
-      <c r="P9" s="105">
+      <c r="P9" s="93">
         <f>[2]EB1!P20</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="105">
+      <c r="Q9" s="93">
         <f>[2]EB1!Q20</f>
         <v>0</v>
       </c>
-      <c r="R9" s="105">
+      <c r="R9" s="93">
         <f>[2]EB1!R20</f>
         <v>0</v>
       </c>
-      <c r="S9" s="105">
+      <c r="S9" s="93">
         <f>[2]EB1!S20</f>
         <v>0</v>
       </c>
-      <c r="T9" s="105">
+      <c r="T9" s="93">
         <f>[2]EB1!T20</f>
         <v>0</v>
       </c>
-      <c r="U9" s="105">
+      <c r="U9" s="93">
         <f>[2]EB1!U20</f>
         <v>132.98599999999999</v>
       </c>
-      <c r="V9" s="107">
+      <c r="V9" s="95">
         <f t="shared" si="0"/>
         <v>7688.2214999999987</v>
       </c>
-      <c r="AC9" s="52" t="s">
+      <c r="AC9" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="AD9" s="63" t="s">
+      <c r="AD9" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AE9" s="79">
+      <c r="AE9" s="68">
         <v>1</v>
       </c>
-      <c r="AF9" s="80">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="80">
+      <c r="AF9" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="69">
         <v>0.3</v>
       </c>
-      <c r="AH9" s="80">
+      <c r="AH9" s="69">
         <v>0.3</v>
       </c>
-      <c r="AI9" s="80">
+      <c r="AI9" s="69">
         <v>0.3</v>
       </c>
-      <c r="AJ9" s="80">
+      <c r="AJ9" s="69">
         <v>0.3</v>
       </c>
-      <c r="AK9" s="80">
+      <c r="AK9" s="69">
         <v>0.3</v>
       </c>
-      <c r="AL9" s="80">
+      <c r="AL9" s="69">
         <v>0.3</v>
       </c>
-      <c r="AM9" s="80">
+      <c r="AM9" s="69">
         <v>0.3</v>
       </c>
-      <c r="AN9" s="80">
+      <c r="AN9" s="69">
         <v>0.3</v>
       </c>
-      <c r="AO9" s="80">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="80">
+      <c r="AO9" s="69">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="69">
         <v>1</v>
       </c>
-      <c r="AQ9" s="80">
+      <c r="AQ9" s="69">
         <v>0.5</v>
       </c>
-      <c r="AR9" s="80">
+      <c r="AR9" s="69">
         <v>0.5</v>
       </c>
-      <c r="AS9" s="81">
+      <c r="AS9" s="70">
         <v>0.44</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="52" t="s">
+    <row r="10" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="43">
         <f>[2]EB1!D21</f>
         <v>773.00014999999871</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="43">
         <f>[2]EB1!E21</f>
         <v>0</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="43">
         <f>[2]EB1!F21</f>
         <v>0</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="43">
         <f>[2]EB1!G21</f>
         <v>0</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="43">
         <f>[2]EB1!H21</f>
         <v>0</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="43">
         <f>[2]EB1!I21</f>
         <v>0</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="43">
         <f>[2]EB1!J21</f>
         <v>0</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="43">
         <f>[2]EB1!K21</f>
         <v>0</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="43">
         <f>[2]EB1!L21</f>
         <v>0</v>
       </c>
-      <c r="M10" s="54">
+      <c r="M10" s="43">
         <f>[2]EB1!M21</f>
         <v>0</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="43">
         <f>[2]EB1!N21</f>
         <v>0</v>
       </c>
-      <c r="O10" s="54">
+      <c r="O10" s="43">
         <f>[2]EB1!O21</f>
         <v>0</v>
       </c>
-      <c r="P10" s="54">
+      <c r="P10" s="43">
         <f>[2]EB1!P21</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="54">
+      <c r="Q10" s="43">
         <f>[2]EB1!Q21</f>
         <v>0</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="43">
         <f>[2]EB1!R21</f>
         <v>0</v>
       </c>
-      <c r="S10" s="54">
+      <c r="S10" s="43">
         <f>[2]EB1!S21</f>
         <v>0</v>
       </c>
-      <c r="T10" s="54">
+      <c r="T10" s="43">
         <f>[2]EB1!T21</f>
         <v>313.51900000000001</v>
       </c>
-      <c r="U10" s="54">
+      <c r="U10" s="43">
         <f>[2]EB1!U21</f>
         <v>325</v>
       </c>
-      <c r="V10" s="108">
+      <c r="V10" s="96">
         <f t="shared" si="0"/>
         <v>1411.5191499999987</v>
       </c>
-      <c r="AC10" s="52" t="s">
+      <c r="AC10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="AD10" s="64" t="s">
+      <c r="AD10" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="AE10" s="74">
+      <c r="AE10" s="63">
         <v>1</v>
       </c>
-      <c r="AF10" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="75">
+      <c r="AF10" s="64">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="64">
         <v>0.3</v>
       </c>
-      <c r="AH10" s="75">
+      <c r="AH10" s="64">
         <v>0.3</v>
       </c>
-      <c r="AI10" s="75">
+      <c r="AI10" s="64">
         <v>0.3</v>
       </c>
-      <c r="AJ10" s="75">
+      <c r="AJ10" s="64">
         <v>0.3</v>
       </c>
-      <c r="AK10" s="75">
+      <c r="AK10" s="64">
         <v>0.3</v>
       </c>
-      <c r="AL10" s="75">
+      <c r="AL10" s="64">
         <v>0.3</v>
       </c>
-      <c r="AM10" s="75">
+      <c r="AM10" s="64">
         <v>0.3</v>
       </c>
-      <c r="AN10" s="75">
+      <c r="AN10" s="64">
         <v>0.3</v>
       </c>
-      <c r="AO10" s="75">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="75">
+      <c r="AO10" s="64">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="64">
         <v>1</v>
       </c>
-      <c r="AQ10" s="75">
+      <c r="AQ10" s="64">
         <v>0.5</v>
       </c>
-      <c r="AR10" s="75">
+      <c r="AR10" s="64">
         <v>0.5</v>
       </c>
-      <c r="AS10" s="82">
+      <c r="AS10" s="71">
         <v>0.44</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="52" t="s">
+    <row r="11" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B11" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="93">
         <f>[2]EB1!D22</f>
         <v>34.094450000000002</v>
       </c>
-      <c r="E11" s="105">
+      <c r="E11" s="93">
         <f>[2]EB1!E22</f>
         <v>253.5292</v>
       </c>
-      <c r="F11" s="105">
+      <c r="F11" s="93">
         <f>[2]EB1!F22</f>
         <v>0</v>
       </c>
-      <c r="G11" s="105">
+      <c r="G11" s="93">
         <f>[2]EB1!G22</f>
         <v>76.465000000000003</v>
       </c>
-      <c r="H11" s="105">
+      <c r="H11" s="93">
         <f>[2]EB1!H22</f>
         <v>4.7945000000000002</v>
       </c>
-      <c r="I11" s="105">
+      <c r="I11" s="93">
         <f>[2]EB1!I22</f>
         <v>199.87350000000001</v>
       </c>
-      <c r="J11" s="105">
+      <c r="J11" s="93">
         <f>[2]EB1!J22</f>
         <v>3.1459999999999999</v>
       </c>
-      <c r="K11" s="105">
+      <c r="K11" s="93">
         <f>[2]EB1!K22</f>
         <v>899.20600000000002</v>
       </c>
-      <c r="L11" s="105">
+      <c r="L11" s="93">
         <f>[2]EB1!L22</f>
         <v>52.04</v>
       </c>
-      <c r="M11" s="105">
+      <c r="M11" s="93">
         <f>[2]EB1!M22</f>
         <v>800.72900000000004</v>
       </c>
-      <c r="N11" s="106">
+      <c r="N11" s="94">
         <f>[2]EB1!N22</f>
         <v>0</v>
       </c>
-      <c r="O11" s="105">
+      <c r="O11" s="93">
         <f>[2]EB1!O22</f>
         <v>0</v>
       </c>
-      <c r="P11" s="105">
+      <c r="P11" s="93">
         <f>[2]EB1!P22</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="105">
+      <c r="Q11" s="93">
         <f>[2]EB1!Q22</f>
         <v>0</v>
       </c>
-      <c r="R11" s="105">
+      <c r="R11" s="93">
         <f>[2]EB1!R22</f>
         <v>0</v>
       </c>
-      <c r="S11" s="105">
+      <c r="S11" s="93">
         <f>[2]EB1!S22</f>
         <v>0</v>
       </c>
-      <c r="T11" s="105">
+      <c r="T11" s="93">
         <f>[2]EB1!T22</f>
         <v>0</v>
       </c>
-      <c r="U11" s="105">
+      <c r="U11" s="93">
         <f>[2]EB1!U22</f>
         <v>0</v>
       </c>
-      <c r="V11" s="107">
+      <c r="V11" s="95">
         <f t="shared" si="0"/>
         <v>2323.8776500000004</v>
       </c>
-      <c r="AC11" s="52" t="s">
+      <c r="AC11" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="AD11" s="63" t="s">
+      <c r="AD11" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="AE11" s="79">
+      <c r="AE11" s="68">
         <v>1</v>
       </c>
-      <c r="AF11" s="80">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="80">
+      <c r="AF11" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="69">
         <v>0.3</v>
       </c>
-      <c r="AH11" s="80">
+      <c r="AH11" s="69">
         <v>0.3</v>
       </c>
-      <c r="AI11" s="80">
+      <c r="AI11" s="69">
         <v>0.3</v>
       </c>
-      <c r="AJ11" s="80">
+      <c r="AJ11" s="69">
         <v>0.3</v>
       </c>
-      <c r="AK11" s="80">
+      <c r="AK11" s="69">
         <v>0.3</v>
       </c>
-      <c r="AL11" s="80">
+      <c r="AL11" s="69">
         <v>0.3</v>
       </c>
-      <c r="AM11" s="80">
+      <c r="AM11" s="69">
         <v>0.3</v>
       </c>
-      <c r="AN11" s="80">
+      <c r="AN11" s="69">
         <v>0.3</v>
       </c>
-      <c r="AO11" s="80">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="80">
+      <c r="AO11" s="69">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="69">
         <v>1</v>
       </c>
-      <c r="AQ11" s="80">
+      <c r="AQ11" s="69">
         <v>0.5</v>
       </c>
-      <c r="AR11" s="80">
+      <c r="AR11" s="69">
         <v>0.5</v>
       </c>
-      <c r="AS11" s="81">
+      <c r="AS11" s="70">
         <v>0.44</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="52" t="s">
+    <row r="12" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B12" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="105">
+      <c r="D12" s="93">
         <f>[2]EB1!D23</f>
         <v>0</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="93">
         <f>[2]EB1!E23</f>
         <v>0</v>
       </c>
-      <c r="F12" s="105">
+      <c r="F12" s="93">
         <f>[2]EB1!F23</f>
         <v>0</v>
       </c>
-      <c r="G12" s="105">
+      <c r="G12" s="93">
         <f>[2]EB1!G23</f>
         <v>146.90600000000001</v>
       </c>
-      <c r="H12" s="105">
+      <c r="H12" s="93">
         <f>[2]EB1!H23</f>
         <v>0</v>
       </c>
-      <c r="I12" s="105">
+      <c r="I12" s="93">
         <f>[2]EB1!I23</f>
         <v>0</v>
       </c>
-      <c r="J12" s="105">
+      <c r="J12" s="93">
         <f>[2]EB1!J23</f>
         <v>0</v>
       </c>
-      <c r="K12" s="105">
+      <c r="K12" s="93">
         <f>[2]EB1!K23</f>
         <v>0</v>
       </c>
-      <c r="L12" s="105">
+      <c r="L12" s="93">
         <f>[2]EB1!L23</f>
         <v>902.14</v>
       </c>
-      <c r="M12" s="105">
+      <c r="M12" s="93">
         <f>[2]EB1!M23</f>
         <v>6.5</v>
       </c>
-      <c r="N12" s="106">
+      <c r="N12" s="94">
         <f>[2]EB1!N23</f>
         <v>0</v>
       </c>
-      <c r="O12" s="54">
+      <c r="O12" s="43">
         <f>[2]EB1!O23</f>
         <v>0</v>
       </c>
-      <c r="P12" s="54">
+      <c r="P12" s="43">
         <f>[2]EB1!P23</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="54">
+      <c r="Q12" s="43">
         <f>[2]EB1!Q23</f>
         <v>0</v>
       </c>
-      <c r="R12" s="54">
+      <c r="R12" s="43">
         <f>[2]EB1!R23</f>
         <v>0</v>
       </c>
-      <c r="S12" s="105">
+      <c r="S12" s="93">
         <f>[2]EB1!S23</f>
         <v>0</v>
       </c>
-      <c r="T12" s="105">
+      <c r="T12" s="93">
         <f>[2]EB1!T23</f>
         <v>0</v>
       </c>
-      <c r="U12" s="105">
+      <c r="U12" s="93">
         <f>[2]EB1!U23</f>
         <v>0</v>
       </c>
-      <c r="V12" s="107">
+      <c r="V12" s="95">
         <f t="shared" si="0"/>
         <v>1055.546</v>
       </c>
-      <c r="AC12" s="52" t="s">
+      <c r="AC12" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="AD12" s="63" t="s">
+      <c r="AD12" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="AE12" s="79">
+      <c r="AE12" s="68">
         <v>1</v>
       </c>
-      <c r="AF12" s="80">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="80">
+      <c r="AF12" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="69">
         <v>0.3</v>
       </c>
-      <c r="AH12" s="80">
+      <c r="AH12" s="69">
         <v>0.3</v>
       </c>
-      <c r="AI12" s="80">
+      <c r="AI12" s="69">
         <v>0.3</v>
       </c>
-      <c r="AJ12" s="80">
+      <c r="AJ12" s="69">
         <v>0.3</v>
       </c>
-      <c r="AK12" s="80">
+      <c r="AK12" s="69">
         <v>0.3</v>
       </c>
-      <c r="AL12" s="80">
+      <c r="AL12" s="69">
         <v>0.3</v>
       </c>
-      <c r="AM12" s="80">
+      <c r="AM12" s="69">
         <v>0.3</v>
       </c>
-      <c r="AN12" s="80">
+      <c r="AN12" s="69">
         <v>0.3</v>
       </c>
-      <c r="AO12" s="80">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="80">
+      <c r="AO12" s="69">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="69">
         <v>1</v>
       </c>
-      <c r="AQ12" s="80">
+      <c r="AQ12" s="69">
         <v>0.5</v>
       </c>
-      <c r="AR12" s="80">
+      <c r="AR12" s="69">
         <v>0.5</v>
       </c>
-      <c r="AS12" s="81">
+      <c r="AS12" s="70">
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="102" t="s">
+    <row r="13" spans="2:45" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="45">
         <f t="shared" ref="D13:V13" si="1">SUM(D5:D12)</f>
         <v>2337.9238999999989</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="45">
         <f t="shared" si="1"/>
         <v>4881.9848000000002</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56">
+      <c r="F13" s="45"/>
+      <c r="G13" s="45">
         <f t="shared" si="1"/>
         <v>5975.8215</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="45">
         <f t="shared" si="1"/>
         <v>1163.9024999999999</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="45">
         <f t="shared" si="1"/>
         <v>675.02300000000002</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="45">
         <f t="shared" si="1"/>
         <v>2415.732</v>
       </c>
-      <c r="K13" s="56">
+      <c r="K13" s="45">
         <f t="shared" si="1"/>
         <v>943.27200000000005</v>
       </c>
-      <c r="L13" s="56">
+      <c r="L13" s="45">
         <f t="shared" si="1"/>
         <v>1321.9105</v>
       </c>
-      <c r="M13" s="56">
+      <c r="M13" s="45">
         <f t="shared" si="1"/>
         <v>999.96400000000006</v>
       </c>
-      <c r="N13" s="56">
+      <c r="N13" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="56">
+      <c r="O13" s="45">
         <f t="shared" si="1"/>
         <v>1643.7629999999999</v>
       </c>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56">
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45">
         <f t="shared" si="1"/>
         <v>59.204999999999998</v>
       </c>
-      <c r="T13" s="56">
+      <c r="T13" s="45">
         <f t="shared" si="1"/>
         <v>1198.163</v>
       </c>
-      <c r="U13" s="56">
+      <c r="U13" s="45">
         <f>SUM(U5:U12)</f>
         <v>5211.4674999999997</v>
       </c>
-      <c r="V13" s="57">
+      <c r="V13" s="46">
         <f t="shared" si="1"/>
         <v>28885.632699999998</v>
       </c>
-      <c r="AC13" s="52" t="s">
+      <c r="AC13" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="72"/>
-      <c r="AN13" s="72"/>
-      <c r="AO13" s="72"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="73"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="D14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="D15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:45" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="C16" s="55" t="s">
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="61"/>
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="61"/>
+      <c r="AS13" s="62"/>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="D14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="D15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="2:45" ht="15" x14ac:dyDescent="0.25">
+      <c r="C16" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="D17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="29" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="2:24" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="136" t="s">
+      <c r="E19" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="136" t="s">
+      <c r="F19" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="136" t="s">
+      <c r="G19" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="136" t="s">
+      <c r="H19" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="136" t="s">
+      <c r="I19" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="J19" s="136" t="s">
+      <c r="J19" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="136" t="s">
+      <c r="K19" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="L19" s="136" t="s">
+      <c r="L19" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="136" t="s">
+      <c r="M19" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="N19" s="136" t="s">
+      <c r="N19" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="O19" s="136" t="s">
+      <c r="O19" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="P19" s="136" t="s">
+      <c r="P19" s="117" t="s">
         <v>165</v>
       </c>
-      <c r="Q19" s="136" t="s">
+      <c r="Q19" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="R19" s="136" t="s">
+      <c r="R19" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="S19" s="136" t="s">
+      <c r="S19" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="T19" s="136" t="s">
+      <c r="T19" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="U19" s="137" t="s">
+      <c r="U19" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="V19" s="51" t="s">
+      <c r="V19" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="116" t="s">
+    <row r="20" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="117">
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="105">
         <v>1</v>
       </c>
-      <c r="W20" s="113"/>
-      <c r="X20" s="112" t="s">
+      <c r="W20" s="101"/>
+      <c r="X20" s="100" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="V21" s="7"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="V22" s="7"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="C23" s="67" t="s">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C23" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="V23" s="7"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="26" t="s">
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="115" t="s">
+      <c r="E24" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="V24" s="7"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="52" t="s">
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="138">
+      <c r="C25" s="119">
         <v>1</v>
       </c>
-      <c r="D25" s="139"/>
-      <c r="E25" s="140"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6331,7 +6241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6346,27 +6256,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="82" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6376,11 +6286,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6406,290 +6316,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="41"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="str">
+      <c r="B2" s="10" t="str">
         <f>'EB1'!B7</f>
         <v>IND</v>
       </c>
-      <c r="C2" s="13" t="str">
+      <c r="C2" s="10" t="str">
         <f>'EB1'!C7</f>
         <v>Industry</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="13" t="str">
+      <c r="E2" s="10" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="13" t="str">
+      <c r="F2" s="10" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="J2" s="141" t="s">
+      <c r="H2" s="9"/>
+      <c r="J2" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="141"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J3" s="143" t="s">
+      <c r="J3" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="144" t="s">
+      <c r="K3" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="143" t="s">
+      <c r="L3" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="143" t="s">
+      <c r="N3" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="143" t="s">
+      <c r="O3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="143" t="s">
+      <c r="P3" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="143" t="s">
+      <c r="Q3" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="143" t="s">
+      <c r="R3" s="124" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="5" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="J4" s="145" t="s">
+    <row r="4" spans="2:18" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="145" t="s">
+      <c r="K4" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="145" t="s">
+      <c r="L4" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="145" t="s">
+      <c r="M4" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="145" t="s">
+      <c r="N4" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="145" t="s">
+      <c r="O4" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="145" t="s">
+      <c r="P4" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="145" t="s">
+      <c r="Q4" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="145" t="s">
+      <c r="R4" s="126" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="14"/>
-      <c r="J5" s="146" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146" t="str">
+      <c r="K5" s="127"/>
+      <c r="L5" s="127" t="str">
         <f>$B$2&amp;'EB1'!$D$2</f>
         <v>INDCOA</v>
       </c>
-      <c r="M5" s="147" t="str">
+      <c r="M5" s="128" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$D$3</f>
         <v>Industry Solid Fuels</v>
       </c>
-      <c r="N5" s="146" t="str">
+      <c r="N5" s="127" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="14"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146" t="str">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="11"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127" t="str">
         <f>$B$2&amp;'EB1'!$E$2</f>
         <v>INDGAS</v>
       </c>
-      <c r="M6" s="147" t="str">
+      <c r="M6" s="128" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$E$3</f>
         <v>Industry Natural Gas</v>
       </c>
-      <c r="N6" s="146" t="str">
+      <c r="N6" s="127" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="14"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146" t="str">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="11"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127" t="str">
         <f>$B$2&amp;'EB1'!$F$2</f>
         <v>INDOIL</v>
       </c>
-      <c r="M7" s="147" t="str">
+      <c r="M7" s="128" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$F$3</f>
         <v>Industry Crude oil</v>
       </c>
-      <c r="N7" s="146" t="str">
+      <c r="N7" s="127" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="146"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="14"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146" t="str">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="11"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127" t="str">
         <f>$B$2&amp;'EB1'!$O$2</f>
         <v>INDBIO</v>
       </c>
-      <c r="M8" s="147" t="str">
+      <c r="M8" s="128" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$O$3</f>
         <v>Industry Biomass</v>
       </c>
-      <c r="N8" s="146" t="str">
+      <c r="N8" s="127" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O8" s="146"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="146"/>
-      <c r="R8" s="146"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="14"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146" t="str">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="11"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127" t="str">
         <f>$B$2&amp;'EB1'!$U$2</f>
         <v>INDELC</v>
       </c>
-      <c r="M9" s="147" t="str">
+      <c r="M9" s="128" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$U$3</f>
         <v>Industry Electricity</v>
       </c>
-      <c r="N9" s="146" t="str">
+      <c r="N9" s="127" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="146"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="14"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="11"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="14"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="33"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="11"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D12" s="4" t="s">
@@ -6697,144 +6578,144 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="J12" s="141" t="s">
+      <c r="J12" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="141"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="148"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="96" t="s">
+      <c r="F13" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="96" t="s">
+      <c r="H13" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="143" t="s">
+      <c r="J13" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="144" t="s">
+      <c r="K13" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="143" t="s">
+      <c r="L13" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="143" t="s">
+      <c r="M13" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="N13" s="143" t="s">
+      <c r="N13" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="143" t="s">
+      <c r="O13" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="P13" s="143" t="s">
+      <c r="P13" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="Q13" s="143" t="s">
+      <c r="Q13" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="143" t="s">
+      <c r="R13" s="124" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="J14" s="145" t="s">
+      <c r="J14" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="145" t="s">
+      <c r="K14" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="145" t="s">
+      <c r="L14" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="145" t="s">
+      <c r="M14" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="145" t="s">
+      <c r="N14" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="145" t="s">
+      <c r="O14" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="145" t="s">
+      <c r="P14" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="Q14" s="145" t="s">
+      <c r="Q14" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="R14" s="145" t="s">
+      <c r="R14" s="126" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16" t="str">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="str">
         <f>E2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J15" s="145" t="s">
+      <c r="J15" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="149"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="149"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
@@ -6849,37 +6730,37 @@
         <f>L5</f>
         <v>INDCOA</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="89">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="77">
         <v>1</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="78">
         <v>50</v>
       </c>
-      <c r="J16" s="150" t="s">
+      <c r="J16" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146" t="str">
+      <c r="K16" s="127"/>
+      <c r="L16" s="127" t="str">
         <f>"FT"&amp;$G$2&amp;"-"&amp;L5</f>
         <v>FTE-INDCOA</v>
       </c>
-      <c r="M16" s="147" t="str">
+      <c r="M16" s="128" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M5</f>
         <v>Sector Fuel Technology Existing Industry Solid Fuels</v>
       </c>
-      <c r="N16" s="146" t="str">
+      <c r="N16" s="127" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O16" s="146" t="str">
+      <c r="O16" s="127" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="146"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
@@ -6894,35 +6775,35 @@
         <f>L6</f>
         <v>INDGAS</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="89">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="77">
         <v>1</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="78">
         <v>50</v>
       </c>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146" t="str">
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127" t="str">
         <f>"FT"&amp;$G$2&amp;"-"&amp;L6</f>
         <v>FTE-INDGAS</v>
       </c>
-      <c r="M17" s="147" t="str">
+      <c r="M17" s="128" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M6</f>
         <v>Sector Fuel Technology Existing Industry Natural Gas</v>
       </c>
-      <c r="N17" s="146" t="str">
+      <c r="N17" s="127" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O17" s="146" t="str">
+      <c r="O17" s="127" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="146"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
@@ -6937,196 +6818,179 @@
         <f>L7</f>
         <v>INDOIL</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="76">
         <f>-'EB1'!G$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>0.29646731618564842</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="89">
+      <c r="F18" s="12"/>
+      <c r="G18" s="77">
         <v>1</v>
       </c>
-      <c r="H18" s="90">
+      <c r="H18" s="78">
         <v>50</v>
       </c>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146" t="str">
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127" t="str">
         <f>"FT"&amp;$G$2&amp;"-"&amp;L7</f>
         <v>FTE-INDOIL</v>
       </c>
-      <c r="M18" s="147" t="str">
+      <c r="M18" s="128" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M7</f>
         <v>Sector Fuel Technology Existing Industry Crude oil</v>
       </c>
-      <c r="N18" s="146" t="str">
+      <c r="N18" s="127" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O18" s="146" t="str">
+      <c r="O18" s="127" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C19" t="str">
         <f>'EB1'!H$2</f>
         <v>KER</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="76">
         <f>-'EB1'!H$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>3.6087163455549506E-2</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146" t="str">
+      <c r="F19" s="12"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127" t="str">
         <f>"FT"&amp;$G$2&amp;"-"&amp;L8</f>
         <v>FTE-INDBIO</v>
       </c>
-      <c r="M19" s="147" t="str">
+      <c r="M19" s="128" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M8</f>
         <v>Sector Fuel Technology Existing Industry Biomass</v>
       </c>
-      <c r="N19" s="146" t="str">
+      <c r="N19" s="127" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O19" s="146" t="str">
+      <c r="O19" s="127" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="146"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C20" t="str">
         <f>'EB1'!I$2</f>
         <v>LPG</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="76">
         <f>-'EB1'!I$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>0.14191233727077954</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146" t="str">
+      <c r="F20" s="12"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127" t="str">
         <f>"FT"&amp;$G$2&amp;"-"&amp;L9</f>
         <v>FTE-INDELC</v>
       </c>
-      <c r="M20" s="147" t="str">
+      <c r="M20" s="128" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M9</f>
         <v>Sector Fuel Technology Existing Industry Electricity</v>
       </c>
-      <c r="N20" s="146" t="str">
+      <c r="N20" s="127" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O20" s="146" t="str">
+      <c r="O20" s="127" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P20" s="146" t="s">
+      <c r="P20" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C21" t="str">
         <f>'EB1'!J$2</f>
         <v>GSL</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="76">
         <f>-'EB1'!J$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>7.708467850200032E-3</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="90"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="N21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C22" t="str">
         <f>'EB1'!K$2</f>
         <v>NAP</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="76">
         <f>-'EB1'!K$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>4.373954986954863E-2</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="90"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C23" t="str">
         <f>'EB1'!L$2</f>
         <v>HFO</v>
       </c>
-      <c r="E23" s="88">
+      <c r="E23" s="76">
         <f>-'EB1'!L$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>0.28393137815910952</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="90"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C24" t="str">
         <f>'EB1'!M$2</f>
         <v>OPP</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="76">
         <f>-'EB1'!M$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>0.19015378720916443</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="5"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="78"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
@@ -7141,12 +7005,12 @@
         <f>L8</f>
         <v>INDBIO</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="89">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="77">
         <v>1</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="78">
         <v>50</v>
       </c>
     </row>
@@ -7163,59 +7027,64 @@
         <f>L9</f>
         <v>INDELC</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="89">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="77">
         <v>1</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="78">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="14"/>
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="81">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="121"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="14"/>
+      <c r="B28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="121"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="14"/>
+      <c r="B29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="121"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="53"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="86"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="1" t="s">
         <v>150</v>
       </c>
@@ -7229,7 +7098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7261,181 +7130,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="str">
+      <c r="B2" s="10" t="str">
         <f>'EB1'!B7</f>
         <v>IND</v>
       </c>
-      <c r="C2" s="13" t="str">
+      <c r="C2" s="10" t="str">
         <f>'EB1'!C7</f>
         <v>Industry</v>
       </c>
-      <c r="D2" s="24" t="str">
+      <c r="D2" s="19" t="str">
         <f>"Demand Technologies"</f>
         <v>Demand Technologies</v>
       </c>
-      <c r="E2" s="13" t="str">
+      <c r="E2" s="10" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="13" t="str">
+      <c r="F2" s="10" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="G2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="141" t="s">
+      <c r="L2" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="141"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L3" s="143" t="s">
+      <c r="L3" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="144" t="s">
+      <c r="M3" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="143" t="s">
+      <c r="N3" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="143" t="s">
+      <c r="P3" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="143" t="s">
+      <c r="Q3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="143" t="s">
+      <c r="R3" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="143" t="s">
+      <c r="S3" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="143" t="s">
+      <c r="T3" s="124" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="5" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="L4" s="145" t="s">
+    <row r="4" spans="2:20" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="L4" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="145" t="s">
+      <c r="M4" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="145" t="s">
+      <c r="N4" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="145" t="s">
+      <c r="O4" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="145" t="s">
+      <c r="P4" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="145" t="s">
+      <c r="Q4" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="145" t="s">
+      <c r="R4" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="145" t="s">
+      <c r="S4" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="145" t="s">
+      <c r="T4" s="126" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="L5" s="150" t="s">
+    <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="L5" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="146"/>
-      <c r="N5" s="150" t="str">
+      <c r="M5" s="127"/>
+      <c r="N5" s="123" t="str">
         <f>LEFT($L$5,1)&amp;LEFT(B2,1)&amp;'EB1'!$C$20</f>
         <v>DIDM1</v>
       </c>
-      <c r="O5" s="150" t="str">
+      <c r="O5" s="123" t="str">
         <f>LEFT($D$2,6)&amp;" "&amp;$C$2&amp; " Sector - "&amp;'EB1'!$X$20</f>
         <v>Demand Industry Sector - Demand 1</v>
       </c>
-      <c r="P5" s="150" t="str">
+      <c r="P5" s="123" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150"/>
-      <c r="T5" s="150"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L6" s="148" t="s">
+      <c r="L6" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148" t="str">
+      <c r="M6" s="127"/>
+      <c r="N6" s="127" t="str">
         <f>$B$2&amp;'EB1'!$C$23</f>
         <v>INDCO2</v>
       </c>
-      <c r="O6" s="148" t="str">
+      <c r="O6" s="127" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$C$24</f>
         <v>Industry Carbon dioxide</v>
       </c>
-      <c r="P6" s="148" t="str">
+      <c r="P6" s="127" t="str">
         <f>'EB1'!$AA$2</f>
         <v>kt</v>
       </c>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="148"/>
-      <c r="S6" s="148"/>
-      <c r="T6" s="148"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
     </row>
     <row r="7" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="114" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7445,163 +7314,163 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="134">
+      <c r="G8" s="115">
         <v>0.2</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="17"/>
-      <c r="L8" s="141" t="s">
+      <c r="J8" s="14"/>
+      <c r="L8" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="141"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="127"/>
     </row>
     <row r="9" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="99" t="s">
+      <c r="F9" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H9" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I9" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="143" t="s">
+      <c r="L9" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="144" t="s">
+      <c r="M9" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="143" t="s">
+      <c r="N9" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="143" t="s">
+      <c r="O9" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="143" t="s">
+      <c r="P9" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="143" t="s">
+      <c r="Q9" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="143" t="s">
+      <c r="R9" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="143" t="s">
+      <c r="S9" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="143" t="s">
+      <c r="T9" s="124" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I10" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="L10" s="145" t="s">
+      <c r="L10" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="145" t="s">
+      <c r="M10" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="145" t="s">
+      <c r="N10" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="145" t="s">
+      <c r="O10" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="145" t="s">
+      <c r="P10" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="145" t="s">
+      <c r="Q10" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="145" t="s">
+      <c r="R10" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="S10" s="145" t="s">
+      <c r="S10" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="T10" s="145" t="s">
+      <c r="T10" s="126" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16" t="str">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13" t="str">
         <f>E2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="16" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="145" t="s">
+      <c r="L11" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="145"/>
-      <c r="T11" s="145"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
@@ -7616,250 +7485,160 @@
         <f>$N$5</f>
         <v>DIDM1</v>
       </c>
-      <c r="E12" s="123"/>
-      <c r="F12" s="132">
+      <c r="E12" s="7"/>
+      <c r="F12" s="113">
         <f>'EB1'!$D$7/('EB1'!$D$7+'EB1'!$E$7+SUM('EB1'!$G$7:$M$7)+'EB1'!O$7+'EB1'!U$7)</f>
         <v>0.18680048955254447</v>
       </c>
-      <c r="G12" s="135">
+      <c r="G12" s="116">
         <f>IF(F12=0,20%,F12*(1+$G$8))</f>
         <v>0.22416058746305337</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="79">
         <v>1</v>
       </c>
-      <c r="I12" s="91">
+      <c r="I12" s="79">
         <v>0.95</v>
       </c>
-      <c r="J12" s="53">
+      <c r="J12" s="42">
         <v>30</v>
       </c>
-      <c r="L12" s="150" t="s">
+      <c r="L12" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146" t="str">
+      <c r="M12" s="127"/>
+      <c r="N12" s="127" t="str">
         <f>LEFT($B$2)&amp;'EB1'!$C$20&amp;$I$2&amp;'EB1'!V2</f>
         <v>IDM1ETOT</v>
       </c>
-      <c r="O12" s="151" t="str">
+      <c r="O12" s="127" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp; " Sector - "&amp;""&amp;$I$1&amp;" "&amp;'EB1'!$X$20&amp;" - "&amp;'EB1'!$V$3</f>
         <v>Demand Technologies Industry Sector - Existing Demand 1 - Total</v>
       </c>
-      <c r="P12" s="146" t="str">
+      <c r="P12" s="127" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Q12" s="146" t="str">
+      <c r="Q12" s="127" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="127"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C13" t="str">
         <f>Sector_Fuels!L6</f>
         <v>INDGAS</v>
       </c>
-      <c r="F13" s="132">
+      <c r="F13" s="113">
         <f>'EB1'!$E$7/('EB1'!$D$7+'EB1'!$E$7+SUM('EB1'!$G$7:$M$7)+'EB1'!O$7+'EB1'!U$7)</f>
         <v>0.26888446182878689</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="116">
         <f>IF(F13=0,20%,F13*(1+$G$8))</f>
         <v>0.32266135419454428</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="O13" s="20"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
       <c r="C14" t="str">
         <f>Sector_Fuels!L7</f>
         <v>INDOIL</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="132">
+      <c r="E14" s="7"/>
+      <c r="F14" s="113">
         <f>SUM('EB1'!$G$7:$M$7)/('EB1'!$D$7+'EB1'!$E$7+SUM('EB1'!$G$7:$M$7)+'EB1'!O$7+'EB1'!U$7)</f>
         <v>0.15262646600475283</v>
       </c>
-      <c r="G14" s="135">
+      <c r="G14" s="116">
         <f>IF(F14=0,20%,F14*(1+$G$8))</f>
         <v>0.1831517592057034</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="7"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="O14" s="20"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
       <c r="C15" t="str">
         <f>Sector_Fuels!L8</f>
         <v>INDBIO</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="132">
+      <c r="E15" s="7"/>
+      <c r="F15" s="113">
         <f>'EB1'!O$7/('EB1'!$D$7+'EB1'!$E$7+SUM('EB1'!$G$7:$M$7)+'EB1'!O$7+'EB1'!U$7)</f>
         <v>8.1997581809253622E-2</v>
       </c>
-      <c r="G15" s="135">
+      <c r="G15" s="116">
         <f>IF(F15=0,20%,F15*(1+$G$8))</f>
         <v>9.8397098171104341E-2</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="7"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="O15" s="20"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C16" t="str">
         <f>Sector_Fuels!L9</f>
         <v>INDELC</v>
       </c>
-      <c r="F16" s="132">
+      <c r="F16" s="113">
         <f>'EB1'!U$7/('EB1'!$D$7+'EB1'!$E$7+SUM('EB1'!$G$7:$M$7)+'EB1'!O$7+'EB1'!U$7)</f>
         <v>0.30969100080466228</v>
       </c>
-      <c r="G16" s="135">
+      <c r="G16" s="116">
         <f>IF(F16=0,20%,F16*(1+$G$8))</f>
         <v>0.37162920096559471</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="H20" s="10"/>
-      <c r="I20" s="131"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I21" s="131"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="53"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="7"/>
+      <c r="I20" s="112"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I21" s="112"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="42"/>
       <c r="C22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I22" s="131"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="86"/>
+      <c r="I22" s="112"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="74"/>
       <c r="C23" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="131"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I24" s="131"/>
+      <c r="I23" s="112"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I24" s="112"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D27" s="5"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E27" s="7"/>
       <c r="K27" s="1"/>
     </row>
   </sheetData>
@@ -7870,7 +7649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7895,33 +7674,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="str">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="13" t="str">
+      <c r="F2" s="10" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
@@ -7947,7 +7726,7 @@
       <c r="D6" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="88">
         <v>2005</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -7964,56 +7743,56 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="16" t="str">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="13" t="str">
         <f>E2</f>
         <v>PJ</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="7" t="str">
+      <c r="C9" t="str">
         <f>DemTechs_IND!$N$5</f>
         <v>DIDM1</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="89">
         <f>SUM('EB1'!D7:E7,'EB1'!G7:O7,'EB1'!U7)</f>
         <v>6600.8440499999997</v>
       </c>
@@ -8024,10 +7803,10 @@
         <f>DemTechs_IND!$N$5</f>
         <v>DIDM1</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="87">
+      <c r="J9" s="75">
         <v>0.3</v>
       </c>
     </row>
@@ -8035,72 +7814,68 @@
       <c r="G10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="27" t="str">
+      <c r="H10" s="1" t="str">
         <f>DemTechs_IND!$N$5</f>
         <v>DIDM1</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="75">
         <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="127"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="7"/>
       <c r="G11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="27" t="str">
+      <c r="H11" s="1" t="str">
         <f>DemTechs_IND!$N$5</f>
         <v>DIDM1</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="87">
+      <c r="J11" s="75">
         <f>1-J9-J10-J12</f>
         <v>0.28999999999999992</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="126"/>
-      <c r="G12" s="39" t="s">
+      <c r="D12" s="1"/>
+      <c r="G12" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="39" t="str">
+      <c r="H12" s="28" t="str">
         <f>DemTechs_IND!$N$5</f>
         <v>DIDM1</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J12" s="92">
+      <c r="J12" s="80">
         <v>0.21</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E15" s="34"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E16" s="10"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="10"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="53"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="86"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="1" t="s">
         <v>150</v>
       </c>
@@ -8112,7 +7887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8125,100 +7900,94 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" spans="2:9" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47" t="str">
+      <c r="B6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="36" t="str">
         <f>Sector_Fuels!$L$5</f>
         <v>INDCOA</v>
       </c>
-      <c r="D6" s="47" t="str">
+      <c r="D6" s="36" t="str">
         <f>Sector_Fuels!$L$6</f>
         <v>INDGAS</v>
       </c>
-      <c r="E6" s="47" t="str">
+      <c r="E6" s="36" t="str">
         <f>Sector_Fuels!$L$7</f>
         <v>INDOIL</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="46" t="str">
+      <c r="B8" s="35" t="str">
         <f>DemTechs_IND!N6</f>
         <v>INDCO2</v>
       </c>
-      <c r="C8" s="91">
+      <c r="C8" s="79">
         <v>95</v>
       </c>
-      <c r="D8" s="130">
+      <c r="D8" s="79">
         <v>56.1</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="79">
         <v>76.400000000000006</v>
       </c>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-    </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="53"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="86"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="1" t="s">
         <v>150</v>
       </c>

--- a/VT_REG1_IND_V12.xlsx
+++ b/VT_REG1_IND_V12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA_Release\Demo_S012_Vonline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5AF54B-9E93-4842-AB10-85DB75F9C285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F66526-C1A0-405C-8742-0419B9FCB86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1538,7 +1538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="175">
   <si>
     <t>CommName</t>
   </si>
@@ -2057,6 +2057,12 @@
   </si>
   <si>
     <t>PJa</t>
+  </si>
+  <si>
+    <t>Rohit Test</t>
+  </si>
+  <si>
+    <t>ROHIT TEST</t>
   </si>
 </sst>
 </file>
@@ -6290,7 +6296,7 @@
   <dimension ref="B1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6960,7 +6966,18 @@
       <c r="H22" s="78"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
-      <c r="M22" s="20"/>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="N22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C23" t="str">

--- a/VT_REG1_IND_V12.xlsx
+++ b/VT_REG1_IND_V12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA_Release\Demo_S012_Vonline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F66526-C1A0-405C-8742-0419B9FCB86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A381A909-FDDF-4D42-8E05-2A1A7069295A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1538,7 +1538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="177">
   <si>
     <t>CommName</t>
   </si>
@@ -2063,6 +2063,12 @@
   </si>
   <si>
     <t>ROHIT TEST</t>
+  </si>
+  <si>
+    <t>RahulTest</t>
+  </si>
+  <si>
+    <t>rahul test</t>
   </si>
 </sst>
 </file>
@@ -6296,7 +6302,7 @@
   <dimension ref="B1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6993,7 +6999,18 @@
       <c r="H23" s="78"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
-      <c r="M23" s="20"/>
+      <c r="L23" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="N23" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C24" t="str">
